--- a/unit6_debugkernel/unit6_debugkernel.xlsx
+++ b/unit6_debugkernel/unit6_debugkernel.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B0E4D-B40A-47B3-BFDF-9DBA0BE7B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Remote Kernel Debugging" sheetId="4" r:id="rId1"/>
-    <sheet name="step debug kernel" sheetId="1" r:id="rId2"/>
-    <sheet name="Image, zImage, uImage, vmlinux" sheetId="2" r:id="rId3"/>
-    <sheet name="driver hello.ko" sheetId="3" r:id="rId4"/>
+    <sheet name="MucLuc" sheetId="5" r:id="rId1"/>
+    <sheet name="Remote Kernel Debugging" sheetId="4" r:id="rId2"/>
+    <sheet name="step debug kernel" sheetId="1" r:id="rId3"/>
+    <sheet name="Image, zImage, uImage, vmlinux" sheetId="2" r:id="rId4"/>
+    <sheet name="driver hello.ko" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="200">
   <si>
     <t>✅ Bảng phân biệt nhanh:</t>
   </si>
@@ -64,7 +66,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +150,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,7 +165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,7 +180,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -214,7 +216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -284,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +301,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,7 +349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -392,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -410,7 +412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,7 +430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,7 +441,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -449,7 +451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -472,7 +474,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,7 +522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -562,7 +564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,7 +597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -613,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -628,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -646,7 +648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -664,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -682,7 +684,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,7 +699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -715,7 +717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -748,7 +750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -763,7 +765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -778,7 +780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,7 +795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,7 +820,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -838,7 +840,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -861,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -879,7 +881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -897,7 +899,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -915,7 +917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -926,7 +928,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -936,7 +938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -959,7 +961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1000,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1011,7 +1013,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1021,7 +1023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1039,7 +1041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1057,7 +1059,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1070,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1080,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1109,7 +1111,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1149,7 +1151,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1169,7 +1171,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1189,7 +1191,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1217,7 +1219,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1241,7 +1243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1259,7 +1261,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1277,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1300,7 +1302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1323,7 +1325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1346,7 +1348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1377,7 +1379,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1387,7 +1389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1412,7 +1414,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1446,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1467,7 +1469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1490,7 +1492,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1508,7 +1510,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1535,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1553,7 +1555,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1568,7 +1570,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1583,7 +1585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1601,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1616,7 +1618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,7 +1662,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1712,7 +1714,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1722,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1740,7 +1742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1776,7 +1778,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1792,7 +1794,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1802,7 +1804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1828,7 +1830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1863,7 +1865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1874,7 +1876,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1884,7 +1886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1908,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1916,7 +1918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1927,7 +1929,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1937,7 +1939,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1955,7 +1957,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1981,7 +1983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1999,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2017,7 +2019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2042,7 +2044,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2077,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2121,7 +2123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2151,7 +2153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2174,7 +2176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2192,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2207,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,7 +2232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2248,7 +2250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2277,7 +2279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2295,7 +2297,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2306,7 +2308,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2316,7 +2318,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2334,7 +2336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2357,7 +2359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2375,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2421,7 +2423,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2443,7 +2445,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2453,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2471,7 +2473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2489,7 +2491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2507,7 +2509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2525,7 +2527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2548,7 +2550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2571,7 +2573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2582,7 +2584,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2592,7 +2594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2626,7 +2628,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2642,7 +2644,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2652,7 +2654,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2675,7 +2677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2693,7 +2695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2722,7 +2724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2745,7 +2747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2771,7 +2773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2789,7 +2791,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2827,7 +2829,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2845,7 +2847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2868,7 +2870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2891,7 +2893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2920,7 +2922,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2938,7 +2940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2956,7 +2958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2971,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2994,7 +2996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3009,7 +3011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3035,7 +3037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3050,7 +3052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3076,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3099,7 +3101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3120,7 +3122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3138,7 +3140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3156,7 +3158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3174,7 +3176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3215,7 +3217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3224,17 +3226,32 @@
   </si>
   <si>
     <t>Kernel Makefile sẽ sử dụng thông tin này để biên dịch mô-đun của bạn từ mã nguồn trong thư mục này.</t>
+  </si>
+  <si>
+    <t>MucLuc</t>
+  </si>
+  <si>
+    <t>Remote Kernel Debugging</t>
+  </si>
+  <si>
+    <t>step debug kernel</t>
+  </si>
+  <si>
+    <t>Image, zImage, uImage, vmlinux</t>
+  </si>
+  <si>
+    <t>driver hello.ko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3242,7 +3259,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3250,7 +3267,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3263,7 +3280,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3277,7 +3294,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3285,7 +3302,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3305,7 +3322,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3313,8 +3330,26 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3512,15 +3547,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3535,17 +3561,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -3571,6 +3590,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3606,7 +3637,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3650,7 +3687,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3694,7 +3737,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3732,7 +3781,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3770,7 +3825,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3808,7 +3869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3846,7 +3913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3893,7 +3966,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3940,7 +4019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3987,7 +4072,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4025,7 +4116,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4072,7 +4169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4119,7 +4222,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4166,7 +4275,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4213,7 +4328,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Right Brace 36"/>
+        <xdr:cNvPr id="37" name="Right Brace 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4270,7 +4391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Right Brace 37"/>
+        <xdr:cNvPr id="38" name="Right Brace 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4330,7 +4457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Right Brace 38"/>
+        <xdr:cNvPr id="39" name="Right Brace 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4390,7 +4523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Right Brace 39"/>
+        <xdr:cNvPr id="40" name="Right Brace 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4450,7 +4589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Right Brace 40"/>
+        <xdr:cNvPr id="41" name="Right Brace 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4510,7 +4655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Right Brace 41"/>
+        <xdr:cNvPr id="42" name="Right Brace 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4575,7 +4726,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4627,7 +4784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4664,7 +4827,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4711,7 +4880,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4758,7 +4933,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4805,7 +4986,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4852,7 +5039,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4899,7 +5092,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4946,7 +5145,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4993,7 +5198,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5031,7 +5242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5068,7 +5285,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5365,21 +5588,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A553DCEE-A8AF-4E33-86F9-F082A764823C}">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="MucLuc!A1" display="MucLuc" xr:uid="{907231E6-6263-4D29-88B0-6236607CF439}"/>
+    <hyperlink ref="B4" location="'Remote Kernel Debugging'!A1" display="'Remote Kernel Debugging" xr:uid="{C6278D60-6EC3-4314-A017-BF7A3DFCE97A}"/>
+    <hyperlink ref="B6" location="'step debug kernel'!A1" display="'step debug kernel" xr:uid="{3DBD5EE6-510D-4A3A-A7E0-774CF2908B21}"/>
+    <hyperlink ref="B8" location="'Image, zImage, uImage, vmlinux'!A1" display="'Image, zImage, uImage, vmlinux" xr:uid="{F5C16BDE-86FE-465F-82DE-E4053248D513}"/>
+    <hyperlink ref="B10" location="'driver hello.ko'!A1" display="'driver hello.ko" xr:uid="{A1178EF8-CD32-4ADE-A188-616E0C8A2914}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:25" ht="22.8">
+      <c r="A1" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="18">
+    <row r="2" spans="1:25" ht="17.399999999999999">
       <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
@@ -5394,7 +5667,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18">
+    <row r="6" spans="1:25" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
@@ -5419,7 +5692,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="18">
+    <row r="12" spans="1:25" ht="17.399999999999999">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -5429,302 +5702,189 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="23.25">
+    <row r="14" spans="1:25" ht="22.8">
       <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="23"/>
-    </row>
-    <row r="15" spans="1:25" ht="18">
-      <c r="P15" s="24" t="s">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="20"/>
+    </row>
+    <row r="15" spans="1:25" ht="17.399999999999999">
+      <c r="P15" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="26"/>
-    </row>
-    <row r="16" spans="1:25" ht="18">
+      <c r="Y15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" ht="17.399999999999999">
       <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28" t="s">
+      <c r="P16" s="23"/>
+      <c r="Q16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="26"/>
+      <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="1:25">
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="28" t="s">
+      <c r="P17" s="24"/>
+      <c r="Q17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="26"/>
+      <c r="Y17" s="22"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28" t="s">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="26"/>
-    </row>
-    <row r="19" spans="1:25" ht="18">
+      <c r="Y18" s="22"/>
+    </row>
+    <row r="19" spans="1:25" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="30" t="s">
+      <c r="P19" s="24"/>
+      <c r="R19" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="26"/>
+      <c r="Y19" s="22"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="30" t="s">
+      <c r="P20" s="23"/>
+      <c r="R20" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="26"/>
+      <c r="Y20" s="22"/>
     </row>
     <row r="21" spans="1:25">
       <c r="B21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="30" t="s">
+      <c r="P21" s="24"/>
+      <c r="R21" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="26"/>
-    </row>
-    <row r="22" spans="1:25" ht="18">
+      <c r="Y21" s="22"/>
+    </row>
+    <row r="22" spans="1:25" ht="17.399999999999999">
       <c r="B22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P22" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
+      <c r="R22" s="12"/>
+      <c r="Y22" s="22"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="P23" s="29"/>
-      <c r="Q23" s="28" t="s">
+      <c r="P23" s="24"/>
+      <c r="Q23" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="26"/>
-    </row>
-    <row r="24" spans="1:25" ht="23.25">
-      <c r="A24" s="20" t="s">
+      <c r="Y23" s="22"/>
+    </row>
+    <row r="24" spans="1:25" ht="22.8">
+      <c r="A24" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="30" t="s">
+      <c r="P24" s="23"/>
+      <c r="R24" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="26"/>
-    </row>
-    <row r="25" spans="1:25" ht="18">
+      <c r="Y24" s="22"/>
+    </row>
+    <row r="25" spans="1:25" ht="17.399999999999999">
       <c r="A25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="30" t="s">
+      <c r="P25" s="24"/>
+      <c r="R25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="26"/>
-    </row>
-    <row r="26" spans="1:25" ht="18">
+      <c r="Y25" s="22"/>
+    </row>
+    <row r="26" spans="1:25" ht="17.399999999999999">
       <c r="B26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="30" t="s">
+      <c r="P26" s="24"/>
+      <c r="R26" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="26"/>
+      <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:25">
       <c r="B27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="28" t="s">
+      <c r="P27" s="25"/>
+      <c r="Q27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="26"/>
+      <c r="Y27" s="22"/>
     </row>
     <row r="28" spans="1:25">
       <c r="B28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="30" t="s">
+      <c r="P28" s="23"/>
+      <c r="R28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="26"/>
+      <c r="Y28" s="22"/>
     </row>
     <row r="29" spans="1:25">
       <c r="B29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="30" t="s">
+      <c r="P29" s="25"/>
+      <c r="R29" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="26"/>
+      <c r="Y29" s="22"/>
     </row>
     <row r="30" spans="1:25">
       <c r="B30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="30" t="s">
+      <c r="P30" s="23"/>
+      <c r="R30" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="26"/>
+      <c r="Y30" s="22"/>
     </row>
     <row r="31" spans="1:25">
       <c r="B31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="35"/>
-    </row>
-    <row r="33" spans="1:16" ht="18">
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="29"/>
+    </row>
+    <row r="33" spans="1:16" ht="17.399999999999999">
       <c r="A33" s="2" t="s">
         <v>150</v>
       </c>
@@ -5744,13 +5904,13 @@
     <row r="36" spans="1:16">
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" ht="18">
+    <row r="37" spans="1:16" ht="17.399999999999999">
       <c r="A37" s="2" t="s">
         <v>146</v>
       </c>
       <c r="P37" s="12"/>
     </row>
-    <row r="38" spans="1:16" ht="18">
+    <row r="38" spans="1:16" ht="17.399999999999999">
       <c r="B38" s="2" t="s">
         <v>129</v>
       </c>
@@ -5775,7 +5935,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18">
+    <row r="44" spans="1:16" ht="17.399999999999999">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -5791,16 +5951,16 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18">
+    <row r="50" spans="1:2" ht="17.399999999999999">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -5820,7 +5980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18">
+    <row r="55" spans="1:2" ht="17.399999999999999">
       <c r="A55" s="2" t="s">
         <v>149</v>
       </c>
@@ -5841,15 +6001,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="K4:Q90"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="4" spans="12:13">
       <c r="M4" t="s">
@@ -5917,20 +6077,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
+    <row r="1" spans="1:10" ht="22.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5945,18 +6105,18 @@
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -5968,18 +6128,18 @@
       <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -5991,18 +6151,18 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="B5" s="8" t="s">
@@ -6014,20 +6174,20 @@
       <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.6">
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
@@ -6037,18 +6197,18 @@
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="6"/>
@@ -6061,12 +6221,12 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="23.25">
+    <row r="9" spans="1:10" ht="22.8">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="17.399999999999999">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -6091,7 +6251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18">
+    <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -6101,7 +6261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="23.25">
+    <row r="19" spans="1:18" ht="22.8">
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
@@ -6138,7 +6298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18">
+    <row r="24" spans="1:18" ht="17.399999999999999">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -6175,7 +6335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="18">
+    <row r="29" spans="1:18" ht="17.399999999999999">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -6212,7 +6372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="23.25">
+    <row r="34" spans="1:17" ht="22.8">
       <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
@@ -6235,10 +6395,10 @@
       <c r="D36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="41"/>
       <c r="Q36" s="12" t="s">
         <v>64</v>
       </c>
@@ -6253,10 +6413,10 @@
       <c r="D37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="42"/>
       <c r="Q37" s="3" t="s">
         <v>65</v>
       </c>
@@ -6271,13 +6431,13 @@
       <c r="D38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="42"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:17" ht="60">
+    <row r="39" spans="1:17" ht="55.2">
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -6287,10 +6447,10 @@
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:17">
       <c r="Q40" s="3"/>
@@ -6300,7 +6460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="23.25">
+    <row r="42" spans="1:17" ht="22.8">
       <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
@@ -6308,7 +6468,7 @@
     <row r="43" spans="1:17">
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="18">
+    <row r="44" spans="1:17" ht="17.399999999999999">
       <c r="B44" s="2" t="s">
         <v>76</v>
       </c>
@@ -6348,7 +6508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="18">
+    <row r="53" spans="2:2" ht="17.399999999999999">
       <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
@@ -6368,7 +6528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="18">
+    <row r="58" spans="2:2" ht="17.399999999999999">
       <c r="B58" s="2" t="s">
         <v>88</v>
       </c>
@@ -6410,16 +6570,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
@@ -6429,9 +6579,19 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q20" r:id="rId1" display="https://github.com/u-boot/u-boot/blob/master/tools/mkimage.c"/>
+    <hyperlink ref="Q20" r:id="rId1" display="https://github.com/u-boot/u-boot/blob/master/tools/mkimage.c" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6439,314 +6599,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:23" ht="24.6">
+      <c r="A1" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="35"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="L20" s="36" t="s">
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="L20" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="L21" s="43" t="s">
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="L21" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="35"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="L25" s="36" t="s">
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="L25" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="L26" s="29"/>
-      <c r="M26" s="28" t="s">
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="L26" s="24"/>
+      <c r="M26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="L27" s="27"/>
-      <c r="M27" s="28" t="s">
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="L27" s="23"/>
+      <c r="M27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="L28" s="44"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="35"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-    </row>
-    <row r="31" spans="1:23" ht="26.25">
-      <c r="A31" s="45" t="s">
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="L28" s="38"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="29"/>
+    </row>
+    <row r="31" spans="1:18" ht="24.6">
+      <c r="A31" s="39" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" spans="14:25">
-      <c r="N34" s="46" t="s">
+      <c r="N34" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="23"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="20"/>
     </row>
     <row r="35" spans="14:25">
-      <c r="N35" s="27" t="s">
+      <c r="N35" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="26"/>
+      <c r="Y35" s="22"/>
     </row>
     <row r="36" spans="14:25">
-      <c r="N36" s="27"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26"/>
+      <c r="N36" s="23"/>
+      <c r="Y36" s="22"/>
     </row>
     <row r="37" spans="14:25">
-      <c r="N37" s="42" t="s">
+      <c r="N37" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="26"/>
+      <c r="Y37" s="22"/>
     </row>
     <row r="38" spans="14:25">
-      <c r="N38" s="27" t="s">
+      <c r="N38" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="26"/>
+      <c r="Y38" s="22"/>
     </row>
     <row r="39" spans="14:25">
-      <c r="N39" s="27"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="26"/>
+      <c r="N39" s="23"/>
+      <c r="Y39" s="22"/>
     </row>
     <row r="40" spans="14:25">
-      <c r="N40" s="43" t="s">
+      <c r="N40" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="35"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="29"/>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="15" t="s">
